--- a/Vortragsmanager/Templates/AushangExcel.xlsx
+++ b/Vortragsmanager/Templates/AushangExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Thomas\Projekte\Vortragsmanager\Rohdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Thomas\Projekte\Vortragsmanager\Vortragsmanager\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="9380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="9378"/>
   </bookViews>
   <sheets>
     <sheet name="Aushang" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="7">
-  <si>
-    <t>Öffentliche Vorträge der Versammlung Hofgeismar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="6">
   <si>
     <t>Vortragsthema</t>
   </si>
@@ -54,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,14 +62,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -194,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -220,9 +209,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,427 +490,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.89453125" customWidth="1"/>
+    <col min="2" max="2" width="2.5234375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="39.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="39.26171875" customWidth="1"/>
+    <col min="5" max="5" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6">
         <v>43828</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
-        <v>43831</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4"/>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4"/>
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4"/>
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4"/>
+      <c r="B19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4"/>
+      <c r="B23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4"/>
+      <c r="B27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4"/>
+      <c r="B31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4"/>
+      <c r="B35" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="4"/>
+      <c r="B39" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4"/>
+      <c r="B43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4"/>
+      <c r="B47" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="6">
+        <v>43828</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="4"/>
+      <c r="B51" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4"/>
+      <c r="B55" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4"/>
+      <c r="B59" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="4"/>
+      <c r="B63" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="4"/>
+      <c r="B67" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="4"/>
+      <c r="B71" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="4"/>
+      <c r="B75" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="4"/>
+      <c r="B79" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="4"/>
+      <c r="B83" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="4"/>
+      <c r="B87" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="4"/>
+      <c r="B91" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="4"/>
+      <c r="B95" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B25:F25"/>
+  <mergeCells count="24">
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B39:F39"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.37698412698412698" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78740157480314965" bottom="0.74803149606299213" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Fett"&amp;18Öffentliche Vorträge der Versammlung Hofgeismar</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Vortragsmanager/Templates/AushangExcel.xlsx
+++ b/Vortragsmanager/Templates/AushangExcel.xlsx
@@ -492,9 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1421,6 +1419,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B47:F47"/>
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B87:F87"/>
     <mergeCell ref="B91:F91"/>
@@ -1430,21 +1443,6 @@
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B39:F39"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78740157480314965" bottom="0.74803149606299213" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
